--- a/biology/Zoologie/Cerf_d'Eld/Cerf_d'Eld.xlsx
+++ b/biology/Zoologie/Cerf_d'Eld/Cerf_d'Eld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cerf_d%27Eld</t>
+          <t>Cerf_d'Eld</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cervus eldii
 Le Thamin ou Thameng ou  cerf d'Eld (Cervus eldii ou Rucervus eldii) est une espèce de cervidés d'Asie du Sud-Est vivant dans la jungle. On le trouve en Inde du nord (Manipur), Birmanie, Thaïlande, Laos, Viêt Nam et Cambodge.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cerf_d%27Eld</t>
+          <t>Cerf_d'Eld</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cerf d'Eld a un pelage brun-rouge. Sa taille au garrot est d'environ 115 cm et sa masse est de 80 à 150 kg. Il est parfois surnommé cerf lyre en raison de la forme de ses bois.
-Cet animal a été décimé par la chasse, il est devenu rare et sa reproduction dans les zoos est difficile[1].
+Cet animal a été décimé par la chasse, il est devenu rare et sa reproduction dans les zoos est difficile.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cerf_d%27Eld</t>
+          <t>Cerf_d'Eld</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Thamin broute principalement du riz sauvage et des feuilles d'arbres[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Thamin broute principalement du riz sauvage et des feuilles d'arbres.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cerf_d%27Eld</t>
+          <t>Cerf_d'Eld</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe trois sous-espèces :
 Cervus eldii eldi - Manipur, Inde
